--- a/BD/MER/ModelagemFisica.xlsx
+++ b/BD/MER/ModelagemFisica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdnpi\Desktop\3º Termo\Projeto_ProVagas\bd\MER\ModelagemBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28025914-9EB0-4F5B-B9ED-DAF28CFD8D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60EBC91-38B7-46FC-BDE4-0D98F50C1813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{49616955-74A9-4DCD-839A-5AC96D81C1FF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>Roberto Possarle</t>
+  </si>
+  <si>
+    <t>NIF</t>
+  </si>
+  <si>
+    <t>xxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -602,27 +608,6 @@
     <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,6 +624,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -972,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08154577-7DCB-4B1D-81C7-57F28EF0A2C9}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,23 +1001,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="26"/>
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="22"/>
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1141,19 +1147,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="A8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="21"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1334,16 +1340,16 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="A15" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1428,23 +1434,23 @@
       <c r="I18" s="20"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="D21" s="31" t="s">
+      <c r="B21" s="27"/>
+      <c r="D21" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="G21" s="32" t="s">
+      <c r="E21" s="24"/>
+      <c r="G21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="J21" s="30" t="s">
+      <c r="H21" s="25"/>
+      <c r="J21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -1678,10 +1684,10 @@
         <v>1</v>
       </c>
       <c r="H35" s="16"/>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="26"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
@@ -1732,15 +1738,15 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="E38" s="28" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="E38" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="28"/>
+      <c r="F38" s="34"/>
       <c r="H38" s="17">
         <v>2</v>
       </c>
@@ -1807,11 +1813,12 @@
       <c r="F41" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="5" t="s">
@@ -1823,6 +1830,9 @@
       <c r="J42" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="K42" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H43" s="5">
@@ -1834,16 +1844,19 @@
       <c r="J43" s="5">
         <v>1</v>
       </c>
+      <c r="K43" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
       <c r="H44" s="5">
         <v>2</v>
       </c>
@@ -1852,6 +1865,9 @@
       </c>
       <c r="J44" s="5">
         <v>2</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1922,6 +1938,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="D21:E21"/>
@@ -1931,12 +1953,6 @@
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{E8914A0F-EF4D-4FE4-8624-2E5D3922E59D}"/>

--- a/BD/MER/ModelagemFisica.xlsx
+++ b/BD/MER/ModelagemFisica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Projeto_ProVagas\BD\MER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52856673-AFD1-4AC7-A8E6-160C31D40534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0BED28-54B4-4203-8ECB-9603F7149AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{49616955-74A9-4DCD-839A-5AC96D81C1FF}"/>
   </bookViews>
@@ -798,22 +798,22 @@
     <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -831,9 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,7 +840,10 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08154577-7DCB-4B1D-81C7-57F28EF0A2C9}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,19 +1209,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="26"/>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1387,28 +1387,28 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="A8" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="J8" s="34" t="s">
+      <c r="H8" s="23"/>
+      <c r="J8" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1643,16 +1643,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="A15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1740,10 +1740,10 @@
       <c r="I18" s="18"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="21"/>
       <c r="D21" s="28" t="s">
         <v>4</v>
       </c>
@@ -1757,10 +1757,10 @@
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="O21" s="21"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -1981,14 +1981,17 @@
       <c r="H32" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="L32" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2017,14 +2020,14 @@
       <c r="D35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="19"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
@@ -2049,12 +2052,9 @@
         <v>108</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="14" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2074,20 +2074,17 @@
       <c r="L37" s="15">
         <v>1</v>
       </c>
-      <c r="M37" s="15">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="E38" s="25" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="E38" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="25"/>
+      <c r="F38" s="23"/>
       <c r="H38" s="15">
         <v>2</v>
       </c>
@@ -2101,9 +2098,6 @@
         <v>2</v>
       </c>
       <c r="L38" s="15">
-        <v>2</v>
-      </c>
-      <c r="M38" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2157,14 +2151,14 @@
       <c r="F41" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H42" s="4" t="s">
@@ -2227,26 +2221,26 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -2420,14 +2414,14 @@
       <c r="Q52" s="18"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="E54" s="31" t="s">
+      <c r="B54" s="20"/>
+      <c r="E54" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="31"/>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -2531,13 +2525,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A48:R48"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="D21:E21"/>
@@ -2548,9 +2535,16 @@
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="J8:Q8"/>
     <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A48:R48"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{E8914A0F-EF4D-4FE4-8624-2E5D3922E59D}"/>

--- a/BD/MER/ModelagemFisica.xlsx
+++ b/BD/MER/ModelagemFisica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Projeto_ProVagas\BD\MER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0BED28-54B4-4203-8ECB-9603F7149AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00022179-950D-46E4-9FF9-26D1CBE2F902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{49616955-74A9-4DCD-839A-5AC96D81C1FF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="188">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>IdStatusEstagio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -798,24 +801,6 @@
     <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -831,6 +816,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,10 +828,25 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1174,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08154577-7DCB-4B1D-81C7-57F28EF0A2C9}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,27 +1204,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="G1" s="25" t="s">
+      <c r="E1" s="20"/>
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1387,28 +1390,28 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="J8" s="33" t="s">
+      <c r="H8" s="32"/>
+      <c r="J8" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1643,16 +1646,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="A15" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1740,27 +1743,27 @@
       <c r="I18" s="18"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="D21" s="28" t="s">
+      <c r="B21" s="25"/>
+      <c r="D21" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="G21" s="29" t="s">
+      <c r="E21" s="22"/>
+      <c r="G21" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="J21" s="27" t="s">
+      <c r="H21" s="23"/>
+      <c r="J21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="N21" s="22" t="s">
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="N21" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="O21" s="22"/>
+      <c r="O21" s="31"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -1975,6 +1978,9 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>187</v>
+      </c>
       <c r="G32" s="9">
         <v>10</v>
       </c>
@@ -1986,12 +1992,12 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2020,13 +2026,13 @@
       <c r="D35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
       <c r="M35" s="19"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2052,7 +2058,7 @@
         <v>108</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L36" s="14" t="s">
         <v>186</v>
@@ -2076,15 +2082,15 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="E38" s="23" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="E38" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="23"/>
+      <c r="F38" s="32"/>
       <c r="H38" s="15">
         <v>2</v>
       </c>
@@ -2151,14 +2157,14 @@
       <c r="F41" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H42" s="4" t="s">
@@ -2221,26 +2227,26 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -2414,14 +2420,14 @@
       <c r="Q52" s="18"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="E54" s="21" t="s">
+      <c r="B54" s="30"/>
+      <c r="E54" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="21"/>
+      <c r="F54" s="25"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -2436,6 +2442,9 @@
       <c r="F55" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="H55" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -2525,6 +2534,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H35:L35"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="D21:E21"/>
@@ -2535,16 +2554,6 @@
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="J8:Q8"/>
     <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{E8914A0F-EF4D-4FE4-8624-2E5D3922E59D}"/>

--- a/BD/MER/ModelagemFisica.xlsx
+++ b/BD/MER/ModelagemFisica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Projeto_ProVagas\BD\MER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00022179-950D-46E4-9FF9-26D1CBE2F902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416DFEE-A186-4C20-B2C9-86CD3B1B0F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{49616955-74A9-4DCD-839A-5AC96D81C1FF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="195">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -90,9 +90,6 @@
     <t>DescricaoAtividade</t>
   </si>
   <si>
-    <t>DescricaoRequisito</t>
-  </si>
-  <si>
     <t>DataInicio</t>
   </si>
   <si>
@@ -246,12 +243,6 @@
     <t>Profissional experiente em JS</t>
   </si>
   <si>
-    <t>Conhecimento em C#</t>
-  </si>
-  <si>
-    <t>Conhecimento em JS</t>
-  </si>
-  <si>
     <t>CLT C#</t>
   </si>
   <si>
@@ -264,9 +255,6 @@
     <t>IdBeneficioVagas</t>
   </si>
   <si>
-    <t>IdVagas</t>
-  </si>
-  <si>
     <t>Vale Refeição</t>
   </si>
   <si>
@@ -456,9 +444,6 @@
     <t>Curso</t>
   </si>
   <si>
-    <t>Habilidades</t>
-  </si>
-  <si>
     <t>NomeEmpresaExperienciaProfissional</t>
   </si>
   <si>
@@ -498,9 +483,6 @@
     <t>Angular</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
     <t>Tech Now</t>
   </si>
   <si>
@@ -589,6 +571,45 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Habilidade</t>
+  </si>
+  <si>
+    <t>IdHabilidade</t>
+  </si>
+  <si>
+    <t>NomeHabilidade</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>HabilidadeXCandidato</t>
+  </si>
+  <si>
+    <t>IdHabilidadeCandidato</t>
+  </si>
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>IdRequisito</t>
+  </si>
+  <si>
+    <t>NomeRequisito</t>
+  </si>
+  <si>
+    <t>Conhecimento em Angukar</t>
+  </si>
+  <si>
+    <t>Conhecimento em React</t>
+  </si>
+  <si>
+    <t>RequisitoXVaga</t>
+  </si>
+  <si>
+    <t>IdRequisitoVaga</t>
   </si>
 </sst>
 </file>
@@ -612,7 +633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +778,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -780,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -801,6 +834,30 @@
     <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,9 +873,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,27 +882,11 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1175,15 +1213,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08154577-7DCB-4B1D-81C7-57F28EF0A2C9}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
@@ -1199,32 +1237,32 @@
     <col min="14" max="14" width="29.42578125" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
     <col min="18" max="18" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="32"/>
+      <c r="D1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="G1" s="29" t="s">
+      <c r="E1" s="28"/>
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1237,37 +1275,37 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>12</v>
@@ -1284,31 +1322,31 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O3" s="3">
         <v>50</v>
@@ -1331,31 +1369,31 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O4" s="3">
         <v>100</v>
@@ -1378,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1386,32 +1424,28 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="J8" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
+      <c r="A8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="J8" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1425,40 +1459,34 @@
         <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>45</v>
+      <c r="F9" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="O9" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R9" s="18"/>
     </row>
@@ -1467,45 +1495,39 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>182</v>
+      <c r="F10" s="4">
+        <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" s="4">
         <v>231</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q10" s="4">
+        <v>113</v>
+      </c>
+      <c r="P10" s="4">
         <v>1</v>
       </c>
       <c r="R10" s="18"/>
@@ -1515,45 +1537,39 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14">
-        <v>2</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>183</v>
+      <c r="F11" s="4">
+        <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="4">
         <v>341</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="4">
+        <v>114</v>
+      </c>
+      <c r="P11" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1562,45 +1578,39 @@
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="4">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="14">
-        <v>3</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>52</v>
+      <c r="F12" s="4">
+        <v>2</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" s="4">
         <v>234</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q12" s="4">
+        <v>115</v>
+      </c>
+      <c r="P12" s="4">
         <v>3</v>
       </c>
     </row>
@@ -1609,53 +1619,53 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="4">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>2</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="4">
         <v>543</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q13" s="4">
+        <v>116</v>
+      </c>
+      <c r="P13" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="A15" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1675,185 +1685,208 @@
         <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="Q18" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="R18" s="23"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q20" s="14">
+        <v>1</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="D21" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="G21" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="J21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="N21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" s="22"/>
+      <c r="Q21" s="14">
+        <v>2</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="K22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>3</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="6">
-        <v>2</v>
-      </c>
-      <c r="H18" s="6">
-        <v>2</v>
-      </c>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="D21" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="G21" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="J21" s="21" t="s">
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="9">
+        <v>2</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="N21" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="O21" s="31"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="10">
-        <v>1</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>2</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="9">
-        <v>2</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="J24" s="10">
         <v>2</v>
       </c>
@@ -1867,27 +1900,27 @@
         <v>2</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="8">
         <v>3</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G25" s="9">
         <v>3</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J25" s="10">
         <v>3</v>
@@ -1902,21 +1935,21 @@
         <v>3</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="9">
         <v>4</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J26" s="10">
         <v>4</v>
@@ -1928,12 +1961,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G27" s="9">
         <v>5</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J27" s="10">
         <v>5</v>
@@ -1945,59 +1978,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G28" s="9">
         <v>6</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G29" s="9">
         <v>7</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G30" s="9">
         <v>8</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G31" s="9">
         <v>9</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G32" s="9">
         <v>10</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2007,10 +2040,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2026,13 +2062,13 @@
       <c r="D35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
+      <c r="H35" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="19"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2049,19 +2085,19 @@
         <v>2</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2082,15 +2118,15 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="E38" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="32"/>
+      <c r="A38" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="E38" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="23"/>
       <c r="H38" s="15">
         <v>2</v>
       </c>
@@ -2109,19 +2145,19 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2129,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -2138,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2146,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C41" s="12">
         <v>2</v>
@@ -2155,32 +2191,32 @@
         <v>2</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H42" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>12</v>
@@ -2191,16 +2227,16 @@
         <v>1</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M43" s="4">
         <v>1</v>
@@ -2211,141 +2247,138 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M44" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="19"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="N49" s="3" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C50" s="17">
         <v>44808</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="K50" s="3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1</v>
       </c>
       <c r="O50" s="3">
         <v>1</v>
@@ -2354,206 +2387,347 @@
         <v>1</v>
       </c>
       <c r="Q50" s="3">
-        <v>1</v>
-      </c>
-      <c r="R50" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C51" s="17">
         <v>44808</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N51" s="3">
+        <v>2</v>
+      </c>
+      <c r="O51" s="3">
+        <v>2</v>
+      </c>
+      <c r="P51" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q52" s="18"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="E54" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O51" s="3">
-        <v>2</v>
-      </c>
-      <c r="P51" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>3</v>
-      </c>
-      <c r="R51" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q52" s="18"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="30"/>
-      <c r="E54" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="25"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>2</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="1">
-        <v>2</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H57" s="38">
+        <v>1</v>
+      </c>
+      <c r="I57" s="38">
+        <v>1</v>
+      </c>
+      <c r="J57" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="H58" s="38">
+        <v>2</v>
+      </c>
+      <c r="I58" s="38">
+        <v>2</v>
+      </c>
+      <c r="J58" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E59" s="1">
         <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="H59" s="38">
+        <v>3</v>
+      </c>
+      <c r="I59" s="38">
+        <v>2</v>
+      </c>
+      <c r="J59" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E60" s="1">
         <v>5</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E61" s="1">
         <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" s="23"/>
       <c r="E62" s="1">
         <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="E68" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F68" s="35"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>1</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="37">
+        <v>1</v>
+      </c>
+      <c r="F70" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>2</v>
+      </c>
+      <c r="B71" s="4">
+        <v>2</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="37">
+        <v>2</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>3</v>
+      </c>
+      <c r="B72" s="4">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H35:L35"/>
+  <mergeCells count="24">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H55:J55"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="J8:Q8"/>
     <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="A48:Q48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{E8914A0F-EF4D-4FE4-8624-2E5D3922E59D}"/>
